--- a/src/bin/clicker-data-collector-server/handlers/report.xlsx
+++ b/src/bin/clicker-data-collector-server/handlers/report.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ambient_temperature_range">Лист1!$D$3</definedName>
-    <definedName name="comment">Лист1!$B$5</definedName>
-    <definedName name="data_type">Лист1!$D$1</definedName>
-    <definedName name="date">Лист1!$C$7</definedName>
-    <definedName name="route_id">Лист1!$D$2</definedName>
+    <definedName name="ambient_temperature_range">report!$D$3</definedName>
+    <definedName name="comment">report!$B$5</definedName>
+    <definedName name="data_type">report!$D$1</definedName>
+    <definedName name="date">report!$C$7</definedName>
+    <definedName name="route_id">report!$D$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Дата</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Температура</t>
+  </si>
+  <si>
+    <t>Коментарий</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -130,11 +133,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -142,15 +171,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -160,10 +193,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -447,73 +482,72 @@
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6">
-        <v>45278</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -525,17 +559,22 @@
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:H1"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>